--- a/portal/src/main/webapp/resources/job_upload_bulk_template.xlsx
+++ b/portal/src/main/webapp/resources/job_upload_bulk_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Job Category</t>
   </si>
@@ -62,12 +62,6 @@
     <t>$23 per/hr</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -75,6 +69,48 @@
   </si>
   <si>
     <t>FULL-TIME</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>32 hrs/week</t>
+  </si>
+  <si>
+    <t>VMware vRealize Operations delivers intelligent operations management across physical, virtual, and cloud infrastructures—from VMware vSphere® and Hyper-V to Amazon Web Services. It correlates data from applications to storage in a unified, easy-to-use management tool that provides control over performance, capacity, and configuration, with predictive analytics driving proactive action, and policy-based automation.</t>
+  </si>
+  <si>
+    <t>We are seeking a Senior software engineer with distributed systems expertise to join VMware vRealize Operations Manager team, which is the key component of the vSphere Operations Management Suite and vCloud Suite of products. It provides a new and much simplified approach to operations management of vSphere, physical and cloud infrastructure. Using patented, self-learning analytics and an open, extensible platform, vRealize Operations Manager provides you with operations dashboards to gain deep insights and visibility into health, risk and efficiency of your infrastructure, performance management and capacity optimization capabilities.</t>
+  </si>
+  <si>
+    <t>Experience and knowledge of the management of virtual and non-virtual data center environments is highly desirable. More information on vRealize Operations Manager is available at http://www.vmware.com/products/datacenter-virtualization/vcenter-operations-manager/overview.html</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Sr. Product Manager - NSX / SDN 76984BR</t>
+  </si>
+  <si>
+    <t>22 hrs/week</t>
+  </si>
+  <si>
+    <t>$26 per/hr</t>
+  </si>
+  <si>
+    <t>Armed with a strong understanding of the business need, including customer, partner, technology and internal needs, you will drive technical initiatives that enhance and extend the VMware networking services stack. You will be a major owner of the product and engineering roadmap for VMware L2/L3 networking.</t>
+  </si>
+  <si>
+    <t>Responsibilities cover market strategy, technology vision, product definition, partnering, competitive analysis, and product release management for topics that may range from product features, platform extensibility, management orchestration, performance and partnerships.</t>
+  </si>
+  <si>
+    <t>Junior Engineer - vRealize Operations</t>
+  </si>
+  <si>
+    <t>$15 per/hr</t>
   </si>
 </sst>
 </file>
@@ -139,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -147,6 +183,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +508,7 @@
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="37.42578125" customWidth="1"/>
-    <col min="10" max="10" width="57.28515625" customWidth="1"/>
+    <col min="10" max="10" width="57.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -496,7 +536,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -505,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5454548775</v>
+        <v>8867888</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -514,7 +554,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -523,10 +563,68 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>7488843</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>8857421</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -564,17 +662,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
